--- a/xlsx/市场经济_intext.xlsx
+++ b/xlsx/市场经济_intext.xlsx
@@ -20,592 +20,592 @@
     <t>市场经济</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
+  </si>
+  <si>
+    <t>经济体系</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>封闭经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>二元经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>礼物经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>非正式经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>混合经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>开放经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>参与型经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>计划经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E8%89%B2%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>灰色经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>世界经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>资讯经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
+  </si>
+  <si>
+    <t>社会市场经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>社团主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>社会主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:Economies</t>
+  </si>
+  <si>
+    <t>Template talk-Economies</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>自由市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%B2%A1</t>
+  </si>
+  <si>
+    <t>资本财</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%B5%84%E6%96%99</t>
+  </si>
+  <si>
+    <t>生产资料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
+  </si>
+  <si>
+    <t>利润</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
+  </si>
+  <si>
+    <t>僱佣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>劳动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
+  </si>
+  <si>
+    <t>服务</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
+  </si>
+  <si>
+    <t>货币</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7</t>
+  </si>
+  <si>
+    <t>生产</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%B5%81</t>
+  </si>
+  <si>
+    <t>物流</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E4%B8%9A</t>
+  </si>
+  <si>
+    <t>工商业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>西方世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA</t>
+  </si>
+  <si>
+    <t>封建</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E8%AA%BF%E6%8E%A7</t>
+  </si>
+  <si>
+    <t>宏观调控</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
+  </si>
+  <si>
+    <t>世界贸易组织</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
+  </si>
+  <si>
+    <t>市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AD%A6%E5%99%A8</t>
+  </si>
+  <si>
+    <t>生化武器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>财产权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3</t>
+  </si>
+  <si>
+    <t>和平</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
+  </si>
+  <si>
+    <t>自由放任</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
+  </si>
+  <si>
+    <t>经济自由度指数</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>香港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
+  </si>
+  <si>
+    <t>亚当·斯密</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
+  </si>
+  <si>
+    <t>米尔顿·佛利民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>权力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>无政府资本主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95</t>
+  </si>
+  <si>
+    <t>司法</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
+  </si>
+  <si>
+    <t>通货膨胀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%A4%87%E5%86%9B</t>
+  </si>
+  <si>
+    <t>常备军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E5%B1%80</t>
+  </si>
+  <si>
+    <t>邮局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
+  </si>
+  <si>
+    <t>图书馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F%E5%B1%80</t>
+  </si>
+  <si>
+    <t>警察局</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2</t>
+  </si>
+  <si>
+    <t>消防</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
+  </si>
+  <si>
+    <t>劳工</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%93%81</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>资本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%A3%81%E5%A3%98</t>
+  </si>
+  <si>
+    <t>贸易壁垒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%95%8C</t>
+  </si>
+  <si>
+    <t>国界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%A8%8E</t>
+  </si>
+  <si>
+    <t>关税</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
+  </si>
+  <si>
+    <t>补贴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
+  </si>
+  <si>
+    <t>市场失灵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
+  </si>
+  <si>
+    <t>外部性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD</t>
+  </si>
+  <si>
+    <t>垄断</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE</t>
+  </si>
+  <si>
+    <t>贫穷</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
+  </si>
+  <si>
+    <t>空气污染</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E8%B3%A6</t>
+  </si>
+  <si>
+    <t>税赋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%B3%95%E6%80%A7</t>
+  </si>
+  <si>
+    <t>合法性</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
+  </si>
+  <si>
+    <t>贸易保护主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
+  </si>
+  <si>
+    <t>中央银行</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%8E%87</t>
+  </si>
+  <si>
+    <t>利率</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
+  </si>
+  <si>
+    <t>社会福利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
+  </si>
+  <si>
+    <t>大萧条</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
+  </si>
+  <si>
+    <t>弗里德里克·哈耶克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%A0%E7%BB%9F%E5%9F%BA%E9%87%91%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美国传统基金会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
+  </si>
+  <si>
+    <t>华尔街日报</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%9F%E5%AE%97%E4%B8%89</t>
+  </si>
+  <si>
+    <t>牟宗三</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%BE%80%E5%A5%B4%E5%BD%B9%E4%B9%8B%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>通往奴役之路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA</t>
+  </si>
+  <si>
+    <t>金融市场</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>新自由主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>小政府主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>自由意志主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%83%B9%E6%A0%BC%E6%A9%9F%E5%88%B6</t>
+  </si>
+  <si>
+    <t>自由价格机制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>微观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>宏观经济学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E4%BC%98%E5%8A%BF</t>
+  </si>
+  <si>
+    <t>绝对优势</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E4%BC%98%E5%8A%BF</t>
+  </si>
+  <si>
+    <t>比较优势</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E4%BD%93%E7%B3%BB</t>
-  </si>
-  <si>
-    <t>经济体系</t>
-  </si>
-  <si>
-    <t>政策_政策_社会政策_市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>封閉經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>二元经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%89%A9%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>禮物經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%AD%A3%E5%BC%8F%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>非正式經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>混合经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>开放经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E4%B8%8E%E5%9E%8B%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>参与型经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>计划经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E8%89%B2%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>灰色经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>世界经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>資訊經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%B8%82%E5%9C%BA%E7%BB%8F%E6%B5%8E</t>
-  </si>
-  <si>
-    <t>社会市场经济</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>资本主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>社團主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>社会主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:Economies</t>
-  </si>
-  <si>
-    <t>Template talk-Economies</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>自由市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E8%B2%A1</t>
-  </si>
-  <si>
-    <t>資本財</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%B5%84%E6%96%99</t>
-  </si>
-  <si>
-    <t>生产资料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
-  </si>
-  <si>
-    <t>利润</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
-  </si>
-  <si>
-    <t>僱傭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>劳动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81</t>
-  </si>
-  <si>
-    <t>商品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8A%A1</t>
-  </si>
-  <si>
-    <t>服务</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3</t>
-  </si>
-  <si>
-    <t>貨幣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87</t>
-  </si>
-  <si>
-    <t>投資</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7</t>
-  </si>
-  <si>
-    <t>生产</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%B5%81</t>
-  </si>
-  <si>
-    <t>物流</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E4%B8%9A</t>
-  </si>
-  <si>
-    <t>工商业</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>西方世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA</t>
-  </si>
-  <si>
-    <t>封建</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E8%AA%BF%E6%8E%A7</t>
-  </si>
-  <si>
-    <t>宏觀調控</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
-  </si>
-  <si>
-    <t>世界貿易組織</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4</t>
-  </si>
-  <si>
-    <t>市場</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>國家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AD%A6%E5%99%A8</t>
-  </si>
-  <si>
-    <t>生化武器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>財產權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3</t>
-  </si>
-  <si>
-    <t>和平</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%94%BE%E4%BB%BB</t>
-  </si>
-  <si>
-    <t>自由放任</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E8%87%AA%E7%94%B1%E5%BA%A6%E6%8C%87%E6%95%B0</t>
-  </si>
-  <si>
-    <t>经济自由度指数</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>香港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%C2%B7%E6%96%AF%E5%AF%86</t>
-  </si>
-  <si>
-    <t>亞當·斯密</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E7%88%BE%E9%A0%93%C2%B7%E4%BD%9B%E5%88%A9%E6%B0%91</t>
-  </si>
-  <si>
-    <t>米爾頓·佛利民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>權力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>無政府資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95</t>
-  </si>
-  <si>
-    <t>司法</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80</t>
-  </si>
-  <si>
-    <t>通货膨胀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB</t>
-  </si>
-  <si>
-    <t>消費</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E5%A4%87%E5%86%9B</t>
-  </si>
-  <si>
-    <t>常备军</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1</t>
-  </si>
-  <si>
-    <t>學校</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%B5%E5%B1%80</t>
-  </si>
-  <si>
-    <t>郵局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
-  </si>
-  <si>
-    <t>圖書館</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F%E5%B1%80</t>
-  </si>
-  <si>
-    <t>警察局</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2</t>
-  </si>
-  <si>
-    <t>消防</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
-  </si>
-  <si>
-    <t>勞工</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%93%81</t>
-  </si>
-  <si>
-    <t>產品</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99</t>
-  </si>
-  <si>
-    <t>服務</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>資本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%BF%E6%98%93%E5%A3%81%E5%A3%98</t>
-  </si>
-  <si>
-    <t>貿易壁壘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%95%8C</t>
-  </si>
-  <si>
-    <t>國界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>資本主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E7%A8%8E</t>
-  </si>
-  <si>
-    <t>关税</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
-  </si>
-  <si>
-    <t>補貼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
-  </si>
-  <si>
-    <t>市場失靈</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
-  </si>
-  <si>
-    <t>外部性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9E%84%E6%96%AD</t>
-  </si>
-  <si>
-    <t>垄断</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A7%E7%AA%AE</t>
-  </si>
-  <si>
-    <t>貧窮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%A3%E6%B1%A1%E6%9F%93</t>
-  </si>
-  <si>
-    <t>空氣污染</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%8A%83%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>計劃經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%85%E8%B3%A6</t>
-  </si>
-  <si>
-    <t>稅賦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%B3%95%E6%80%A7</t>
-  </si>
-  <si>
-    <t>合法性</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B8%E6%98%93%E4%BF%9D%E6%8A%A4%E4%B8%BB%E4%B9%89</t>
-  </si>
-  <si>
-    <t>贸易保护主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
-  </si>
-  <si>
-    <t>中央银行</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%8E%87</t>
-  </si>
-  <si>
-    <t>利率</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A6%8F%E5%88%A9</t>
-  </si>
-  <si>
-    <t>社會福利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%90%A7%E6%9D%A1</t>
-  </si>
-  <si>
-    <t>大萧条</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%85%8B%C2%B7%E5%93%88%E8%80%B6%E5%85%8B</t>
-  </si>
-  <si>
-    <t>弗里德里克·哈耶克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%A0%E7%BB%9F%E5%9F%BA%E9%87%91%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美国传统基金会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%B0%94%E8%A1%97%E6%97%A5%E6%8A%A5</t>
-  </si>
-  <si>
-    <t>华尔街日报</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%9F%E5%AE%97%E4%B8%89</t>
-  </si>
-  <si>
-    <t>牟宗三</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%BE%80%E5%A5%B4%E5%BD%B9%E4%B9%8B%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>通往奴役之路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA</t>
-  </si>
-  <si>
-    <t>金融市场</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%87%AA%E7%94%B1%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>新自由主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>小政府主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>自由意志主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%83%B9%E6%A0%BC%E6%A9%9F%E5%88%B6</t>
-  </si>
-  <si>
-    <t>自由價格機制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>微观经济学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>宏觀經濟學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%9D%E5%AF%B9%E4%BC%98%E5%8A%BF</t>
-  </si>
-  <si>
-    <t>绝对优势</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E4%BC%98%E5%8A%BF</t>
-  </si>
-  <si>
-    <t>比较优势</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -954,7 +954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2052,7 +2052,7 @@
         <v>74</v>
       </c>
       <c r="G38" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -2774,7 +2774,7 @@
         <v>123</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2800,10 +2800,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>9</v>
@@ -2829,10 +2829,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2858,10 +2858,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2887,10 +2887,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>30</v>
       </c>
       <c r="G67" t="n">
         <v>7</v>
@@ -2916,10 +2916,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2945,10 +2945,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2974,10 +2974,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3003,10 +3003,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>9</v>
@@ -3032,10 +3032,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3061,10 +3061,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3090,10 +3090,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>7</v>
@@ -3119,10 +3119,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3148,10 +3148,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3177,10 +3177,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3206,10 +3206,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3235,10 +3235,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3264,10 +3264,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3293,10 +3293,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3322,10 +3322,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3351,10 +3351,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3380,10 +3380,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3438,10 +3438,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3467,10 +3467,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3496,10 +3496,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3525,10 +3525,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3554,10 +3554,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3583,10 +3583,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3612,10 +3612,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3641,10 +3641,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3670,10 +3670,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3728,10 +3728,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3757,10 +3757,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3786,10 +3786,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3815,10 +3815,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3844,10 +3844,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -3873,18 +3873,76 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
+        <v>193</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>196</v>
       </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" t="n">
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="s">
+        <v>4</v>
+      </c>
+      <c r="I103" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/市场经济_intext.xlsx
+++ b/xlsx/市场经济_intext.xlsx
@@ -29,7 +29,7 @@
     <t>经济体系</t>
   </si>
   <si>
-    <t>政策_政策_社会政策_市场经济</t>
+    <t>体育运动_体育运动_竞争_市场经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E7%B6%93%E6%BF%9F</t>
